--- a/Value/Ulta Beauty.xlsx
+++ b/Value/Ulta Beauty.xlsx
@@ -5,24 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Value/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD384DB0-C22B-8D44-81B1-8888D39152A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4D3267-8A68-B541-BD9A-EB3F5F900327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31000" yWindow="500" windowWidth="20200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="27900" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$V$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$V$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$V$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -521,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -863,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -924,18 +919,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -970,12 +953,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -983,7 +960,6 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -995,6 +971,30 @@
     <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2516,11 +2516,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC83" sqref="W83:AD118"/>
+      <selection pane="bottomRight" activeCell="Z61" sqref="Z61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3986,7 +3986,7 @@
         <v>4943000</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4052,6 +4052,9 @@
       </c>
       <c r="V18" s="1">
         <v>112450000</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4120,6 +4123,10 @@
       </c>
       <c r="V19" s="10">
         <v>1751060000</v>
+      </c>
+      <c r="AB19" s="66">
+        <f>V40-V56-V61</f>
+        <v>-1165299000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -8618,10 +8625,10 @@
       <c r="V83" s="1">
         <v>-104233000</v>
       </c>
-      <c r="AC83" s="32" t="s">
+      <c r="AC83" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="AD83" s="33"/>
+      <c r="AD83" s="60"/>
     </row>
     <row r="84" spans="1:46" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8688,10 +8695,10 @@
         <v>66156000</v>
       </c>
       <c r="V84" s="1"/>
-      <c r="AC84" s="34" t="s">
+      <c r="AC84" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="AD84" s="35"/>
+      <c r="AD84" s="62"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -8981,10 +8988,10 @@
       <c r="V88" s="1">
         <v>-312126000</v>
       </c>
-      <c r="AC88" s="36" t="s">
+      <c r="AC88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="AD88" s="37">
+      <c r="AD88" s="33">
         <f>AD85/(AD86+AD87)</f>
         <v>2.5972374599091204E-3</v>
       </c>
@@ -9242,10 +9249,10 @@
       <c r="V91" s="1">
         <v>-2458000</v>
       </c>
-      <c r="AC91" s="36" t="s">
+      <c r="AC91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="AD91" s="37">
+      <c r="AD91" s="33">
         <f>AD89/AD90</f>
         <v>0.24457087326317023</v>
       </c>
@@ -9317,10 +9324,10 @@
       <c r="V92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC92" s="38" t="s">
+      <c r="AC92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="AD92" s="39">
+      <c r="AD92" s="35">
         <f>AD88*(1-AD91)</f>
         <v>1.9620288262673291E-3</v>
       </c>
@@ -9393,10 +9400,10 @@
         <f>V88</f>
         <v>-312126000</v>
       </c>
-      <c r="AC93" s="34" t="s">
+      <c r="AC93" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="AD93" s="35"/>
+      <c r="AD93" s="62"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9468,7 +9475,7 @@
       <c r="AC94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AD94" s="40">
+      <c r="AD94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -9542,7 +9549,7 @@
       <c r="AC95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AD95" s="41">
+      <c r="AD95" s="37">
         <v>1.32</v>
       </c>
     </row>
@@ -9616,7 +9623,7 @@
       <c r="AC96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AD96" s="40">
+      <c r="AD96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -9687,10 +9694,10 @@
       <c r="V97" s="1">
         <v>-900033000</v>
       </c>
-      <c r="AC97" s="38" t="s">
+      <c r="AC97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="AD97" s="39">
+      <c r="AD97" s="35">
         <f>(AD94)+((AD95)*(AD96-AD94))</f>
         <v>9.7776000000000002E-2</v>
       </c>
@@ -9762,10 +9769,10 @@
       <c r="V98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AC98" s="34" t="s">
+      <c r="AC98" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="AD98" s="35"/>
+      <c r="AD98" s="62"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -9909,10 +9916,10 @@
       <c r="V100" s="10">
         <v>-861014000</v>
       </c>
-      <c r="AC100" s="36" t="s">
+      <c r="AC100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="AD100" s="37">
+      <c r="AD100" s="33">
         <f>AD99/AD103</f>
         <v>6.7114440450628796E-2</v>
       </c>
@@ -9987,7 +9994,7 @@
       <c r="AC101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AD101" s="42">
+      <c r="AD101" s="38">
         <v>26454000000</v>
       </c>
     </row>
@@ -10058,10 +10065,10 @@
       <c r="V102" s="10">
         <v>306317000</v>
       </c>
-      <c r="AC102" s="36" t="s">
+      <c r="AC102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AD102" s="37">
+      <c r="AD102" s="33">
         <f>AD101/AD103</f>
         <v>0.93288555954937125</v>
       </c>
@@ -10133,10 +10140,10 @@
       <c r="V103" s="1">
         <v>431560000</v>
       </c>
-      <c r="AC103" s="38" t="s">
+      <c r="AC103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AD103" s="43">
+      <c r="AD103" s="39">
         <f>AD99+AD101</f>
         <v>28357176000</v>
       </c>
@@ -10208,10 +10215,10 @@
       <c r="V104" s="11">
         <v>737877000</v>
       </c>
-      <c r="AC104" s="34" t="s">
+      <c r="AC104" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="AD104" s="35"/>
+      <c r="AD104" s="62"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10239,7 +10246,7 @@
         <v>7.2017609312042978</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AL105" si="10">(H106/G106)-1</f>
+        <f t="shared" ref="H105:V105" si="10">(H106/G106)-1</f>
         <v>-0.35116448326055316</v>
       </c>
       <c r="I105" s="15">
@@ -10401,33 +10408,33 @@
         <f>V87+V93</f>
         <v>1169789000</v>
       </c>
-      <c r="W106" s="44">
+      <c r="W106" s="40">
         <f>V106*(1+$AD$106)</f>
         <v>1230766181.2619905</v>
       </c>
-      <c r="X106" s="44">
+      <c r="X106" s="40">
         <f t="shared" ref="X106:AA106" si="11">W106*(1+$AD$106)</f>
         <v>1294921898.6827736</v>
       </c>
-      <c r="Y106" s="44">
+      <c r="Y106" s="40">
         <f t="shared" si="11"/>
         <v>1362421838.7028117</v>
       </c>
-      <c r="Z106" s="44">
+      <c r="Z106" s="40">
         <f t="shared" si="11"/>
         <v>1433440324.4415867</v>
       </c>
-      <c r="AA106" s="44">
+      <c r="AA106" s="40">
         <f t="shared" si="11"/>
         <v>1508160765.8987393</v>
       </c>
-      <c r="AB106" s="45" t="s">
+      <c r="AB106" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="AC106" s="46" t="s">
+      <c r="AC106" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="AD106" s="47">
+      <c r="AD106" s="43">
         <f>(SUM(W4:AA4)/5)</f>
         <v>5.2126649559869787E-2</v>
       </c>
@@ -10454,150 +10461,150 @@
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="13"/>
-      <c r="W107" s="45"/>
-      <c r="X107" s="45"/>
-      <c r="Y107" s="45"/>
-      <c r="Z107" s="45"/>
-      <c r="AA107" s="48">
+      <c r="W107" s="41"/>
+      <c r="X107" s="41"/>
+      <c r="Y107" s="41"/>
+      <c r="Z107" s="41"/>
+      <c r="AA107" s="44">
         <f>AA106*(1+AD107)/(AD108-AD107)</f>
         <v>23300220961.584946</v>
       </c>
-      <c r="AB107" s="49" t="s">
+      <c r="AB107" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="AC107" s="50" t="s">
+      <c r="AC107" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="AD107" s="51">
+      <c r="AD107" s="47">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W108" s="48">
+      <c r="W108" s="44">
         <f t="shared" ref="W108:Y108" si="12">W107+W106</f>
         <v>1230766181.2619905</v>
       </c>
-      <c r="X108" s="48">
+      <c r="X108" s="44">
         <f t="shared" si="12"/>
         <v>1294921898.6827736</v>
       </c>
-      <c r="Y108" s="48">
+      <c r="Y108" s="44">
         <f t="shared" si="12"/>
         <v>1362421838.7028117</v>
       </c>
-      <c r="Z108" s="48">
+      <c r="Z108" s="44">
         <f>Z107+Z106</f>
         <v>1433440324.4415867</v>
       </c>
-      <c r="AA108" s="48">
+      <c r="AA108" s="44">
         <f>AA107+AA106</f>
         <v>24808381727.483685</v>
       </c>
-      <c r="AB108" s="49" t="s">
+      <c r="AB108" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="AC108" s="52" t="s">
+      <c r="AC108" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AD108" s="53">
+      <c r="AD108" s="49">
         <f>AD105</f>
         <v>9.1345498937322259E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="W109" s="54" t="s">
+      <c r="W109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="X109" s="55"/>
+      <c r="X109" s="64"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W110" s="56" t="s">
+      <c r="W110" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="X110" s="57">
+      <c r="X110" s="51">
         <f>NPV(AD108,W108,X108,Y108,Z108,AA108)</f>
         <v>20298212602.824711</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W111" s="56" t="s">
+      <c r="W111" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="X111" s="57">
+      <c r="X111" s="51">
         <f>V40</f>
         <v>737877000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="W112" s="56" t="s">
+      <c r="W112" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="X112" s="57">
+      <c r="X112" s="51">
         <f>AD99</f>
         <v>1903176000</v>
       </c>
     </row>
     <row r="113" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W113" s="56" t="s">
+      <c r="W113" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="X113" s="57">
+      <c r="X113" s="51">
         <f>X110+X111-X112</f>
         <v>19132913602.824711</v>
       </c>
     </row>
     <row r="114" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W114" s="58" t="s">
+      <c r="W114" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="X114" s="59">
-        <f>V34</f>
-        <v>51977000</v>
+      <c r="X114" s="65">
+        <f>V34*(1+(5*AB16))</f>
+        <v>43003211.19368273</v>
       </c>
     </row>
     <row r="115" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W115" s="60" t="s">
+      <c r="W115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="X115" s="61">
+      <c r="X115" s="54">
         <f>X113/X114</f>
-        <v>368.10346120062161</v>
+        <v>444.91825311955728</v>
       </c>
     </row>
     <row r="116" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W116" s="58" t="s">
+      <c r="W116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="X116" s="62">
+      <c r="X116" s="55">
         <v>519.92999999999995</v>
       </c>
     </row>
     <row r="117" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W117" s="63" t="s">
+      <c r="W117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X117" s="64">
+      <c r="X117" s="57">
         <f>X115/X116-1</f>
-        <v>-0.29201342257492036</v>
+        <v>-0.14427278072133298</v>
       </c>
     </row>
     <row r="118" spans="23:24" ht="20" x14ac:dyDescent="0.25">
-      <c r="W118" s="63" t="s">
+      <c r="W118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="X118" s="65" t="str">
+      <c r="X118" s="58" t="str">
         <f>IF(X115&gt;X116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="W109:X109"/>
     <mergeCell ref="AC83:AD83"/>
     <mergeCell ref="AC84:AD84"/>
     <mergeCell ref="AC93:AD93"/>
     <mergeCell ref="AC98:AD98"/>
     <mergeCell ref="AC104:AD104"/>
-    <mergeCell ref="W109:X109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ULTA" display="ROIC.AI | ULTA" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
